--- a/Results/output_task3.xlsx
+++ b/Results/output_task3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mark Diedericks\Documents\Visual Studio 2019\Projects\Interview Prac 3\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F123BF-8F77-4B48-B29F-7B03F4832DFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93196318-77BF-402F-9CA5-01B0269A88A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,6 +1266,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2331,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="O10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results/output_task3.xlsx
+++ b/Results/output_task3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mark Diedericks\Documents\Visual Studio 2019\Projects\Interview Prac 3\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93196318-77BF-402F-9CA5-01B0269A88A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C937B9-C951-4FDB-B783-90569B4CFF01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +401,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -562,9 +568,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1102,7 +1109,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2345,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,49 +2402,49 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>250727</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>27526</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>27149</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>359935572</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>27434</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <f>F2/100</f>
         <v>271.49</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <f>H2/100</f>
         <v>274.33999999999997</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
         <v>130</v>
       </c>
     </row>
@@ -2487,95 +2494,95 @@
         <v>0.710818100000011</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>250727</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>250726</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>26916</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>26809</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>358639791</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>26834</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <f t="shared" si="0"/>
         <v>268.08999999999997</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <f t="shared" si="1"/>
         <v>268.33999999999997</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>402221</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>27507</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>27130</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>359424025</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>27306</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <f t="shared" si="0"/>
         <v>271.3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <f t="shared" si="1"/>
         <v>273.06</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
         <v>130</v>
       </c>
     </row>
@@ -2671,49 +2678,49 @@
         <v>0.70564840000002904</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1000081</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>27488</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>27111</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>358916301</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>27306</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <f t="shared" si="0"/>
         <v>271.11</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>273.06</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <v>130</v>
       </c>
     </row>
@@ -2809,49 +2816,49 @@
         <v>0.69832120000000897</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>250727</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>27532</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>27182</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>360957491</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>27258</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
         <v>271.82</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>272.58</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
         <v>130</v>
       </c>
     </row>
@@ -2901,95 +2908,95 @@
         <v>1.77861329999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>250727</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>250726</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>26965</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>26866</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>360112372</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>26875</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
         <v>268.66000000000003</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>268.75</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>402221</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>27544</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>27194</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>361277799</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>27258</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <f t="shared" si="0"/>
         <v>271.94</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>272.58</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
         <v>130</v>
       </c>
     </row>
@@ -3085,49 +3092,49 @@
         <v>1.67169290000003</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1000081</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>27526</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>27176</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>360798912</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>27258</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <f t="shared" si="0"/>
         <v>271.76</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
         <v>272.58</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
         <v>130</v>
       </c>
     </row>
@@ -3223,49 +3230,49 @@
         <v>1.6428851999998999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>250727</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>27881</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>27306</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>361242833</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>27751</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <f t="shared" si="0"/>
         <v>273.06</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
         <v>277.51</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1">
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <v>130</v>
       </c>
     </row>
@@ -3315,95 +3322,95 @@
         <v>2.0051736999998799</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>250727</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>250726</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>27825</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>27330</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>359080681</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>27321</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <f t="shared" si="0"/>
         <v>273.3</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
         <v>273.20999999999998</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="1">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>402221</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>27816</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>27241</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>359471417</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>27621</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <f t="shared" si="0"/>
         <v>272.41000000000003</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <f t="shared" si="1"/>
         <v>276.20999999999998</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" s="1">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <v>130</v>
       </c>
     </row>
@@ -3499,49 +3506,49 @@
         <v>1.87335910000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>1000081</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>27787</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>27212</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>358682263</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>27559</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <f t="shared" si="0"/>
         <v>272.12</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <f t="shared" si="1"/>
         <v>275.58999999999997</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" s="1">
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
         <v>130</v>
       </c>
     </row>

--- a/Results/output_task3.xlsx
+++ b/Results/output_task3.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mark Diedericks\Documents\Visual Studio 2019\Projects\Interview Prac 3\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C937B9-C951-4FDB-B783-90569B4CFF01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B55BE17-5C49-4446-B1DF-D4D5371170D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_task3" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -72,13 +75,142 @@
     <t>Collisions (x100)</t>
   </si>
   <si>
-    <t>Probe Max (x100)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Rehashes (x100)</t>
   </si>
   <si>
     <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>250727, 1</t>
+  </si>
+  <si>
+    <t>250727, 27183</t>
+  </si>
+  <si>
+    <t>250727, 250726</t>
+  </si>
+  <si>
+    <t>402221, 1</t>
+  </si>
+  <si>
+    <t>402221, 27183</t>
+  </si>
+  <si>
+    <t>402221, 250726</t>
+  </si>
+  <si>
+    <t>1000081, 1</t>
+  </si>
+  <si>
+    <t>1000081, 27183</t>
+  </si>
+  <si>
+    <t>1000081, 250726</t>
+  </si>
+  <si>
+    <t>250727, 1 Time</t>
+  </si>
+  <si>
+    <t>250727, 27183 Time</t>
+  </si>
+  <si>
+    <t>250727, 250726 Time</t>
+  </si>
+  <si>
+    <t>402221, 1 Time</t>
+  </si>
+  <si>
+    <t>402221, 27183 Time</t>
+  </si>
+  <si>
+    <t>402221, 250726 Time</t>
+  </si>
+  <si>
+    <t>1000081, 1 Time</t>
+  </si>
+  <si>
+    <t>1000081, 27183 Time</t>
+  </si>
+  <si>
+    <t>1000081, 250726 Time</t>
+  </si>
+  <si>
+    <t>250727, 1 Collisions</t>
+  </si>
+  <si>
+    <t>250727, 27183 Collisions</t>
+  </si>
+  <si>
+    <t>250727, 250726 Collisions</t>
+  </si>
+  <si>
+    <t>402221, 1 Collision</t>
+  </si>
+  <si>
+    <t>402221, 27183 Collisions</t>
+  </si>
+  <si>
+    <t>402221, 250726 Collisions</t>
+  </si>
+  <si>
+    <t>1000081, 1 Collisions</t>
+  </si>
+  <si>
+    <t>1000081, 27183 Collisions</t>
+  </si>
+  <si>
+    <t>1000081, 250726 Collisions</t>
+  </si>
+  <si>
+    <t>english_small.txt Time</t>
+  </si>
+  <si>
+    <t>english_small.txt Collisions</t>
+  </si>
+  <si>
+    <t>english_large.txt Time</t>
+  </si>
+  <si>
+    <t>english_large.txt Collisions</t>
+  </si>
+  <si>
+    <t>french.txt Time</t>
+  </si>
+  <si>
+    <t>french.txt Collisions</t>
+  </si>
+  <si>
+    <t>english_small.txt Probe Total</t>
+  </si>
+  <si>
+    <t>english_large.txt Probe Total</t>
+  </si>
+  <si>
+    <t>french.txt Probe Total</t>
+  </si>
+  <si>
+    <t>english_small.txt Probe Max</t>
+  </si>
+  <si>
+    <t>english_small.txt Rehash</t>
+  </si>
+  <si>
+    <t>english_large.txt Probe Max</t>
+  </si>
+  <si>
+    <t>english_large.txt Rehash</t>
+  </si>
+  <si>
+    <t>french.txt Probe Max</t>
+  </si>
+  <si>
+    <t>french.txt Rehash</t>
+  </si>
+  <si>
+    <t>Probe Total (x1000000)</t>
   </si>
 </sst>
 </file>
@@ -221,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +539,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -568,10 +706,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -664,9 +803,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t>Hash Table Stats</a:t>
+              <a:rPr lang="en-AU"/>
+              <a:t>TIme,Collisions v. Size,Base</a:t>
             </a:r>
+            <a:endParaRPr lang="en-AU" baseline="0"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -711,11 +851,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>output_task3!$L$1</c:f>
+              <c:f>output_task3!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Collisions (x100)</c:v>
+                  <c:v>english_small.txt Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -731,101 +871,138 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output_task3!$L$2:$L$28</c:f>
+              <c:f>output_task3!$P$2:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>271.49</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>141.1</c:v>
+                  <c:v>0.710818100000011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268.08999999999997</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>271.3</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.5</c:v>
+                  <c:v>0.70077520000000904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.86</c:v>
+                  <c:v>0.70564840000002904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>271.11</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34.18</c:v>
+                  <c:v>0.69767860000001702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.520000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>271.82</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>752.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>268.66000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>271.94</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>470.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>470.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>271.76</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>187.23</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>186.51</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>273.06</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>822.32</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>273.3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>272.41000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>508.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>507.17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>272.12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>203.93</c:v>
+                  <c:v>0.69832120000000897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FEA-492E-85DB-41B1A84FF9D6}"/>
+              <c16:uniqueId val="{00000000-EB69-4F2B-B3DF-A62AF5BC312B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -834,11 +1011,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>output_task3!$M$1</c:f>
+              <c:f>output_task3!$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Probe Max (x100)</c:v>
+                  <c:v>english_large.txt Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -854,101 +1031,138 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output_task3!$M$2:$M$28</c:f>
+              <c:f>output_task3!$P$11:$P$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>274.33999999999997</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17</c:v>
+                  <c:v>1.77861329999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268.33999999999997</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.06</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.08</c:v>
+                  <c:v>1.6896256999999599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>1.67169290000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.06</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.04</c:v>
+                  <c:v>1.6507960000000099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>272.58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>268.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>272.58</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>272.58</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>277.51</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.1800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>273.20999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>276.20999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>275.58999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1</c:v>
+                  <c:v>1.6428851999998999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8FEA-492E-85DB-41B1A84FF9D6}"/>
+              <c16:uniqueId val="{00000001-EB69-4F2B-B3DF-A62AF5BC312B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -957,11 +1171,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>output_task3!$N$1</c:f>
+              <c:f>output_task3!$K$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Rehashes (x100)</c:v>
+                  <c:v>french.txt Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -977,101 +1191,138 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output_task3!$N$2:$N$28</c:f>
+              <c:f>output_task3!$P$20:$P$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.0051736999998799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.8684126000000501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.87335910000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.8245182000000499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1.8235429999999699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8FEA-492E-85DB-41B1A84FF9D6}"/>
+              <c16:uniqueId val="{00000002-EB69-4F2B-B3DF-A62AF5BC312B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1080,11 +1331,1389 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>output_task3!$O$1</c:f>
+              <c:f>output_task3!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time (s)</c:v>
+                  <c:v>english_small.txt Collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>271.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>271.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.520000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB69-4F2B-B3DF-A62AF5BC312B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_large.txt Collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$L$11:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>271.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>752.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>271.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>470.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>271.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>187.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EB69-4F2B-B3DF-A62AF5BC312B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>french.txt Collisions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$L$20:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>273.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>822.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272.41000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>508.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>507.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>272.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EB69-4F2B-B3DF-A62AF5BC312B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="83920559"/>
+        <c:axId val="95127071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83920559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Table Size, Table</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Base</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95127071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95127071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time (s) | Collisions (x100)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83920559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>TIme,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t>Probe Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t> v. Size,Base</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_small.txt Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.710818100000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70077520000000904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70564840000002904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69767860000001702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69832120000000897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AF2-4065-ACE8-36B7567D4F7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_large.txt Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$P$11:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.77861329999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6896256999999599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.67169290000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6507960000000099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6428851999998999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4AF2-4065-ACE8-36B7567D4F7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>french.txt Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$P$20:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0051736999998799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8684126000000501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.87335910000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8245182000000499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8235429999999699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4AF2-4065-ACE8-36B7567D4F7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_small.txt Probe Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1130,6 +2759,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1157,103 +2787,405 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>output_task3!$O$2:$O$28</c:f>
+              <c:f>output_task3!$M$2:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>130</c:v>
+                  <c:v>359.93557199999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.710818100000011</c:v>
+                  <c:v>2.1076000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130</c:v>
+                  <c:v>358.639791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>359.42402499999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70077520000000904</c:v>
+                  <c:v>1.1277000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70564840000002904</c:v>
+                  <c:v>1.1122E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130</c:v>
+                  <c:v>358.91630099999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.69767860000001702</c:v>
+                  <c:v>3.689E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69832120000000897</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.77861329999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6896256999999599</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.67169290000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6507960000000099</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6428851999998999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0051736999998799</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.8684126000000501</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.87335910000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.8245182000000499</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.8235429999999699</c:v>
+                  <c:v>3.882E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8FEA-492E-85DB-41B1A84FF9D6}"/>
+              <c16:uniqueId val="{00000003-4AF2-4065-ACE8-36B7567D4F7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_large.txt Probe Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$M$11:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>360.957491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33568799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>360.11237199999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>361.27779900000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1423000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.1356000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>360.79891199999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3181E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3172000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4AF2-4065-ACE8-36B7567D4F7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>french.txt Probe Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$M$20:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>361.24283300000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43518699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>359.08068100000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359.47141699999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.103017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.101548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>358.68226299999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6037000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5581E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4AF2-4065-ACE8-36B7567D4F7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1263,11 +3195,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="96643007"/>
-        <c:axId val="1985301023"/>
+        <c:axId val="83920559"/>
+        <c:axId val="95127071"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96643007"/>
+        <c:axId val="83920559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,6 +3219,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Table Size, Table</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Base</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1323,7 +3316,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1985301023"/>
+        <c:crossAx val="95127071"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1331,7 +3324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1985301023"/>
+        <c:axId val="95127071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,6 +3344,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time (s) | Probe Total (x1,000,000)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1382,7 +3430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96643007"/>
+        <c:crossAx val="83920559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1395,7 +3443,2752 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>TIme,Probe</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> Max</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t> v. Size,Base</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_small.txt Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.710818100000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70077520000000904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70564840000002904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69767860000001702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69832120000000897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7D2-4D55-9495-CAF836A4515E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_large.txt Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$P$11:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.77861329999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6896256999999599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.67169290000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6507960000000099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6428851999998999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7D2-4D55-9495-CAF836A4515E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>french.txt Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$P$20:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0051736999998799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8684126000000501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.87335910000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8245182000000499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8235429999999699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C7D2-4D55-9495-CAF836A4515E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_small.txt Probe Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$N$2:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>274.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>273.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C7D2-4D55-9495-CAF836A4515E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_large.txt Probe Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$N$11:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>272.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272.58</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>272.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C7D2-4D55-9495-CAF836A4515E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>french.txt Probe Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$N$20:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>277.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>273.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>276.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C7D2-4D55-9495-CAF836A4515E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="83920559"/>
+        <c:axId val="95127071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83920559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Table Size, Table</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Base</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95127071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95127071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time (s) | Probe Max (x100)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83920559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>TIme,Rehashes v. Size,Base</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_small.txt Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.710818100000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70077520000000904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.70564840000002904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69767860000001702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69832120000000897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C45-41BB-A690-096C49382EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_large.txt Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$P$11:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.77861329999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6896256999999599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.67169290000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6507960000000099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6428851999998999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C45-41BB-A690-096C49382EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>french.txt Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$P$20:$P$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0051736999998799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8684126000000501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.87335910000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8245182000000499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8235429999999699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C45-41BB-A690-096C49382EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_small.txt Rehash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$O$2:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C45-41BB-A690-096C49382EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>english_large.txt Rehash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$O$11:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8C45-41BB-A690-096C49382EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output_task3!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>french.txt Rehash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>output_task3!$J$20:$J$28</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>250727, 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250727, 27183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250727, 250726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>402221, 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402221, 27183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>402221, 250726</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000081, 1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000081, 27183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000081, 250726</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>output_task3!$O$20:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8C45-41BB-A690-096C49382EDF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="83920559"/>
+        <c:axId val="95127071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83920559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Table Size, Table</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Base</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95127071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95127071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Time (s) | Rehashes (x100)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83920559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1509,6 +6302,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2012,31 +6925,1542 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600073</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>182216</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74B7226-E74B-41E2-8E22-F9138D28BD93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93C2DB8-BB38-491F-9DC0-F351D2670B66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2050,7 +8474,306 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4847AA6A-7212-4743-85DF-9940CB4171B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B07B2DC-D385-4FB5-97EE-F5373F1C7831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8E45F0-B732-4FED-BC51-70F1245BC6EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output_task2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="H2" t="str">
+            <v>english_small.txt</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>250727, 1</v>
+          </cell>
+          <cell r="J2">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="I3" t="str">
+            <v>250727, 27183</v>
+          </cell>
+          <cell r="J3">
+            <v>0.68015289999999595</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="I4" t="str">
+            <v>250727, 250726</v>
+          </cell>
+          <cell r="J4">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5" t="str">
+            <v>402221, 1</v>
+          </cell>
+          <cell r="J5">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6" t="str">
+            <v>402221, 27183</v>
+          </cell>
+          <cell r="J6">
+            <v>0.66938369999996805</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="I7" t="str">
+            <v>402221, 250726</v>
+          </cell>
+          <cell r="J7">
+            <v>0.66879019999998901</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="I8" t="str">
+            <v>1000081, 1</v>
+          </cell>
+          <cell r="J8">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9" t="str">
+            <v>1000081, 27183</v>
+          </cell>
+          <cell r="J9">
+            <v>0.66000120000000995</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10" t="str">
+            <v>1000081, 250726</v>
+          </cell>
+          <cell r="J10">
+            <v>0.66206619999996896</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11" t="str">
+            <v>english_large.txt</v>
+          </cell>
+          <cell r="J11">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="J12">
+            <v>1.7149133000000301</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="J13">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="J14">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="J15">
+            <v>1.5968671000000501</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="J16">
+            <v>1.5724407999999801</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="J17">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="J18">
+            <v>1.56468640000002</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="J19">
+            <v>1.57002979999992</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20" t="str">
+            <v>french.txt</v>
+          </cell>
+          <cell r="J20">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="J21">
+            <v>2.0092228999999402</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="J22">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="J23">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="J24">
+            <v>1.78190749999998</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="J25">
+            <v>1.7805327000000899</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="J26">
+            <v>130</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="J27">
+            <v>1.73720249999996</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="J28">
+            <v>1.73582149999992</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2350,15 +9073,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="I61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2386,6 +9109,9 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
@@ -2393,16 +9119,19 @@
         <v>13</v>
       </c>
       <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2430,25 +9159,32 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="L2" s="1">
         <f>F2/100</f>
         <v>271.49</v>
       </c>
       <c r="M2" s="1">
+        <f>G2/1000000</f>
+        <v>359.93557199999998</v>
+      </c>
+      <c r="N2" s="1">
         <f>H2/100</f>
         <v>274.33999999999997</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2476,25 +9212,32 @@
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L28" si="0">F3/100</f>
         <v>141.1</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M28" si="1">H3/100</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M28" si="1">G3/1000000</f>
+        <v>2.1076000000000001E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N28" si="2">H3/100</f>
         <v>0.17</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.710818100000011</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2522,8 +9265,11 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="0"/>
@@ -2531,16 +9277,20 @@
       </c>
       <c r="M4" s="1">
         <f t="shared" si="1"/>
+        <v>358.639791</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="2"/>
         <v>268.33999999999997</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2568,8 +9318,11 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
@@ -2577,16 +9330,20 @@
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
+        <v>359.42402499999997</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="2"/>
         <v>273.06</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2614,25 +9371,32 @@
       <c r="I6">
         <v>0</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>88.5</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <f t="shared" si="1"/>
+        <v>1.1277000000000001E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="2"/>
         <v>0.08</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0.70077520000000904</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2659,6 +9423,9 @@
       </c>
       <c r="I7">
         <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
@@ -2667,18 +9434,22 @@
         <f t="shared" si="0"/>
         <v>87.86</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
+        <v>1.1122E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.70564840000002904</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2705,6 +9476,9 @@
       </c>
       <c r="I8" s="1">
         <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>9</v>
@@ -2715,16 +9489,20 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
+        <v>358.91630099999998</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="2"/>
         <v>273.06</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="P8" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2751,6 +9529,9 @@
       </c>
       <c r="I9">
         <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
       </c>
       <c r="K9" t="s">
         <v>9</v>
@@ -2759,18 +9540,22 @@
         <f t="shared" si="0"/>
         <v>34.18</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
+        <v>3.689E-3</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.69767860000001702</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2797,6 +9582,9 @@
       </c>
       <c r="I10">
         <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="K10" t="s">
         <v>9</v>
@@ -2805,18 +9593,22 @@
         <f t="shared" si="0"/>
         <v>35.520000000000003</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
+        <v>3.882E-3</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
         <v>0.04</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.69832120000000897</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2844,8 +9636,11 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="K11" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
@@ -2853,16 +9648,20 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
+        <v>360.957491</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
         <v>272.58</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="O11" s="2">
+      <c r="P11" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2890,25 +9689,32 @@
       <c r="I12">
         <v>0</v>
       </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="L12">
         <f t="shared" si="0"/>
         <v>752.13</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
+        <v>0.33568799999999999</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="2"/>
         <v>1.65</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1.77861329999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2936,8 +9742,11 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
+      <c r="J13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="K13" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
@@ -2945,16 +9754,20 @@
       </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
+        <v>360.11237199999999</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="2"/>
         <v>268.75</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="2">
+      <c r="P13" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2982,8 +9795,11 @@
       <c r="I14" s="1">
         <v>0</v>
       </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
       <c r="K14" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
@@ -2991,16 +9807,20 @@
       </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
+        <v>361.27779900000002</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="2"/>
         <v>272.58</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>0</v>
       </c>
-      <c r="O14" s="2">
+      <c r="P14" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3028,25 +9848,32 @@
       <c r="I15">
         <v>0</v>
       </c>
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
         <v>470.13</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
+        <v>9.1423000000000004E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="2"/>
         <v>0.24</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.6896256999999599</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3073,6 +9900,9 @@
       </c>
       <c r="I16">
         <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
       </c>
       <c r="K16" t="s">
         <v>11</v>
@@ -3081,18 +9911,22 @@
         <f t="shared" si="0"/>
         <v>470.15</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
+        <v>9.1356000000000007E-2</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
         <v>0.37</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1.67169290000003</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -3119,6 +9953,9 @@
       </c>
       <c r="I17" s="1">
         <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>11</v>
@@ -3129,16 +9966,20 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
+        <v>360.79891199999997</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="2"/>
         <v>272.58</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="2">
+      <c r="P17" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3165,6 +10006,9 @@
       </c>
       <c r="I18">
         <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
       </c>
       <c r="K18" t="s">
         <v>11</v>
@@ -3173,18 +10017,22 @@
         <f t="shared" si="0"/>
         <v>187.23</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
+        <v>2.3181E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.6507960000000099</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -3211,6 +10059,9 @@
       </c>
       <c r="I19">
         <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
@@ -3219,18 +10070,22 @@
         <f t="shared" si="0"/>
         <v>186.51</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
+        <v>2.3172000000000002E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1.6428851999998999</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -3258,8 +10113,11 @@
       <c r="I20" s="1">
         <v>0</v>
       </c>
+      <c r="J20" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
@@ -3267,16 +10125,20 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
+        <v>361.24283300000002</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="2"/>
         <v>277.51</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>0</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3304,25 +10166,32 @@
       <c r="I21">
         <v>0</v>
       </c>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
         <v>822.32</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
+        <v>0.43518699999999999</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="2"/>
         <v>2.1800000000000002</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2.0051736999998799</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -3350,8 +10219,11 @@
       <c r="I22" s="1">
         <v>0</v>
       </c>
+      <c r="J22" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="0"/>
@@ -3359,16 +10231,20 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" si="1"/>
+        <v>359.08068100000003</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="2"/>
         <v>273.20999999999998</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="O22" s="2">
+      <c r="P22" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
@@ -3396,8 +10272,11 @@
       <c r="I23" s="1">
         <v>0</v>
       </c>
+      <c r="J23" t="s">
+        <v>20</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="0"/>
@@ -3405,16 +10284,20 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" si="1"/>
+        <v>359.47141699999997</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="2"/>
         <v>276.20999999999998</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>0</v>
       </c>
-      <c r="O23" s="2">
+      <c r="P23" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3442,25 +10325,32 @@
       <c r="I24">
         <v>0</v>
       </c>
+      <c r="J24" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
         <v>508.5</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <f t="shared" si="1"/>
+        <v>0.103017</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="2"/>
         <v>0.31</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1.8684126000000501</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3487,6 +10377,9 @@
       </c>
       <c r="I25">
         <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
       </c>
       <c r="K25" t="s">
         <v>12</v>
@@ -3495,18 +10388,22 @@
         <f t="shared" si="0"/>
         <v>507.17</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <f t="shared" si="1"/>
+        <v>0.101548</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1.87335910000001</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -3533,6 +10430,9 @@
       </c>
       <c r="I26" s="1">
         <v>0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>12</v>
@@ -3543,16 +10443,20 @@
       </c>
       <c r="M26" s="1">
         <f t="shared" si="1"/>
+        <v>358.68226299999998</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="2"/>
         <v>275.58999999999997</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>0</v>
       </c>
-      <c r="O26" s="2">
+      <c r="P26" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3579,6 +10483,9 @@
       </c>
       <c r="I27">
         <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
       </c>
       <c r="K27" t="s">
         <v>12</v>
@@ -3587,18 +10494,22 @@
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <f t="shared" si="1"/>
+        <v>2.6037000000000001E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>1.8245182000000499</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3625,6 +10536,9 @@
       </c>
       <c r="I28">
         <v>0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="K28" t="s">
         <v>12</v>
@@ -3633,14 +10547,18 @@
         <f t="shared" si="0"/>
         <v>203.93</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <f t="shared" si="1"/>
+        <v>2.5581E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.8235429999999699</v>
       </c>
     </row>
